--- a/Data/aearep-994/candidatepackages.xlsx
+++ b/Data/aearep-994/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,36 +22,33 @@
     <t>outreg2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
     <t>ranktest</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
+    <t>binscatter</t>
   </si>
   <si>
     <t>center</t>
   </si>
   <si>
-    <t>binscatter</t>
-  </si>
-  <si>
     <t>ivreghdfe</t>
   </si>
   <si>
@@ -70,63 +67,54 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
+    <t>poverty</t>
+  </si>
+  <si>
     <t>cluster</t>
   </si>
   <si>
     <t>panels</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>ic</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>bys</t>
   </si>
   <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>unemp</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>jc</t>
   </si>
   <si>
@@ -148,24 +136,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-994</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-994/119684/CODE</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-994/119684/CODE/restricted_use</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-994/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>1_create_data.do</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>6_create_linear_appendix_tables.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>0A_create individual datasets.do</t>
   </si>
   <si>
@@ -200,9 +176,6 @@
   </si>
   <si>
     <t>0E_create_slopes.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -246,7 +219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -254,13 +227,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -268,7 +241,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -280,7 +253,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -292,7 +265,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -304,7 +277,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -316,7 +289,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -328,7 +301,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -340,7 +313,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -352,7 +325,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -364,7 +337,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -376,7 +349,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -388,7 +361,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -400,7 +373,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -412,7 +385,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -424,7 +397,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -436,7 +409,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -448,7 +421,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -460,10 +433,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D18"/>
     </row>
@@ -472,10 +445,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D19"/>
     </row>
@@ -484,10 +457,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C20">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D20"/>
     </row>
@@ -496,10 +469,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>566</v>
+        <v>657</v>
       </c>
       <c r="C21">
-        <v>0.18766577541828156</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D21"/>
     </row>
@@ -508,10 +481,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="C22">
-        <v>0.22513262927532196</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D22"/>
     </row>
@@ -520,10 +493,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C23">
-        <v>0.23143236339092255</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D23"/>
     </row>
@@ -532,10 +505,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>745</v>
+        <v>852</v>
       </c>
       <c r="C24">
-        <v>0.24701590836048126</v>
+        <v>0.28165289759635925</v>
       </c>
       <c r="D24"/>
     </row>
@@ -544,10 +517,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>811</v>
+        <v>955</v>
       </c>
       <c r="C25">
-        <v>0.26889920234680176</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D25"/>
     </row>
@@ -556,10 +529,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>839</v>
+        <v>998</v>
       </c>
       <c r="C26">
-        <v>0.27818301320075989</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D26"/>
     </row>
@@ -568,10 +541,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C27">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D27"/>
     </row>
@@ -580,10 +553,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1124</v>
+        <v>1414</v>
       </c>
       <c r="C28">
-        <v>0.37267905473709106</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D28"/>
     </row>
@@ -592,10 +565,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1133</v>
+        <v>1428</v>
       </c>
       <c r="C29">
-        <v>0.37566313147544861</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D29"/>
     </row>
@@ -604,10 +577,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1423</v>
+        <v>1658</v>
       </c>
       <c r="C30">
-        <v>0.47181698679924011</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D30"/>
     </row>
@@ -616,10 +589,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1472</v>
+        <v>1838</v>
       </c>
       <c r="C31">
-        <v>0.48806366324424744</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D31"/>
     </row>
@@ -628,10 +601,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1553</v>
+        <v>1880</v>
       </c>
       <c r="C32">
-        <v>0.51492041349411011</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D32"/>
     </row>
@@ -640,10 +613,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1798</v>
+        <v>2030</v>
       </c>
       <c r="C33">
-        <v>0.5961538553237915</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D33"/>
     </row>
@@ -652,10 +625,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1817</v>
+        <v>2129</v>
       </c>
       <c r="C34">
-        <v>0.60245358943939209</v>
+        <v>0.70380163192749023</v>
       </c>
       <c r="D34"/>
     </row>
@@ -664,10 +637,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1835</v>
+        <v>2436</v>
       </c>
       <c r="C35">
-        <v>0.60842174291610718</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D35"/>
     </row>
@@ -676,60 +649,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1859</v>
+        <v>2495</v>
       </c>
       <c r="C36">
-        <v>0.61637932062149048</v>
+        <v>0.82479339838027954</v>
       </c>
       <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2000</v>
-      </c>
-      <c r="C37">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2134</v>
-      </c>
-      <c r="C38">
-        <v>0.70755970478057861</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2424</v>
-      </c>
-      <c r="C39">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2427</v>
-      </c>
-      <c r="C40">
-        <v>0.80470824241638184</v>
-      </c>
-      <c r="D40"/>
     </row>
   </sheetData>
 </worksheet>
@@ -737,127 +662,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
